--- a/trace/655PA2_graph.xlsx
+++ b/trace/655PA2_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BU Courses\Fall 2021\CS655\PA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E9081-C57D-4E2E-A866-3915D4AE6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E051D6-34DD-4A62-82AE-AD8335B8A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-20" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>loss</t>
   </si>
@@ -74,22 +74,35 @@
   </si>
   <si>
     <t>Loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Corruption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#Of Retransmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,11 +148,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF76-4247-92CC-ABFBCED6325E}"/>
+              <c16:uniqueId val="{00000000-E72D-4810-BBF1-60284ABFC78F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -529,7 +545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF76-4247-92CC-ABFBCED6325E}"/>
+              <c16:uniqueId val="{00000001-E72D-4810-BBF1-60284ABFC78F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -840,6 +856,1681 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Average RTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> as function of Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$53:$H$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13919291748142928</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13840830013955066</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.15476367913496974</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.15212257891476835</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.31200332260179553</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.21273051579272795</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$53:$H$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13919291748142928</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13840830013955066</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.15476367913496974</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.15212257891476835</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.31200332260179553</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.21273051579272795</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$40:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.016126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.04532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.027700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.120620000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.160500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.3871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.483600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F4A-4AC1-9CA8-555E234C8FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="596918143"/>
+        <c:axId val="596916063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="596918143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Loss Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596916063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="596916063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>RTT</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596918143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Avg RTT as function of Corruption</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$K$53:$Q$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14422301070617011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12742732851504029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16147606282641375</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16366315005351686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17737114063073411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17373288400060619</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$K$53:$Q$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14422301070617011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12742732851504029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16147606282641375</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16366315005351686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17737114063073411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17373288400060619</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$40:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$K$51:$Q$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.016126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.034720000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.076499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.101400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.121516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.09346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9370-4178-BCE3-CBF6C2DEF05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="931778719"/>
+        <c:axId val="931779967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="931778719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Corruption Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931779967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="931779967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>RTT</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931778719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> of retransmission as function of loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GBN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$93:$G$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>4.3729430720181011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0608378476715581</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.260637447800118</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27.988299777665031</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45.06011155482566</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8289636967284135</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$93:$G$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>4.3729430720181011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0608378476715581</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.260637447800118</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27.988299777665031</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45.06011155482566</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8289636967284135</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$91:$G$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0971-4028-88F2-D5867D06E430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.5804599073291823</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8272551829657964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.995387735344936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8508813376446946</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1864715360090505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.01803098320223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.5804599073291823</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8272551829657964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.995387735344936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8508813376446946</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1864715360090505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.01803098320223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$82:$G$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>339.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0971-4028-88F2-D5867D06E430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="969032047"/>
+        <c:axId val="969033295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="969032047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969033295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="969033295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of packets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969032047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1080,7 +2771,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-124C-42C1-92BF-7EDC68540273}"/>
+              <c16:uniqueId val="{00000000-4DE9-4A53-B4E7-97A0D3B1188C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1214,7 +2905,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-124C-42C1-92BF-7EDC68540273}"/>
+              <c16:uniqueId val="{00000001-4DE9-4A53-B4E7-97A0D3B1188C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1769,7 +3460,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA26-4035-9D76-70AB97214443}"/>
+              <c16:uniqueId val="{00000000-356A-4F85-B5B1-86C794D0560C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,7 +3594,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA26-4035-9D76-70AB97214443}"/>
+              <c16:uniqueId val="{00000001-356A-4F85-B5B1-86C794D0560C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2454,7 +4145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-050C-4C10-B93A-893E1BAB8053}"/>
+              <c16:uniqueId val="{00000000-0A35-49CD-901C-FBBD1AB674E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2588,7 +4279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-050C-4C10-B93A-893E1BAB8053}"/>
+              <c16:uniqueId val="{00000001-0A35-49CD-901C-FBBD1AB674E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2920,7 +4611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2957,7 +4648,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3109,7 +4800,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7314-48D8-B705-DCB1C4A22487}"/>
+              <c16:uniqueId val="{00000000-AA58-4352-A141-77215434159D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3311,7 +5002,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7314-48D8-B705-DCB1C4A22487}"/>
+                    <c16:uniqueId val="{00000001-AA58-4352-A141-77215434159D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3333,7 +5024,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3366,7 +5057,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3404,7 +5095,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3454,7 +5145,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3487,7 +5178,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3519,7 +5210,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3561,7 +5252,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3601,7 +5292,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3635,7 +5326,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3668,7 +5359,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3847,7 +5538,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-224F-42CF-8245-CB8F6DED36E1}"/>
+              <c16:uniqueId val="{00000000-DCDE-4B30-A888-0B1293F7D05C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3877,6 +5568,1695 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Loss Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838620911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1838620911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>RTT</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838635887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t># of retransmit VS. Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.5804599073291823</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8272551829657964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.995387735344936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8508813376446946</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1864715360090505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.01803098320223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.5804599073291823</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8272551829657964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.995387735344936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8508813376446946</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1864715360090505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.01803098320223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$78:$G$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$B$82:$G$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>339.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB42-4685-82BD-E40F45CAFCEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1838632143"/>
+        <c:axId val="1838620079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1838632143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838620079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1838620079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of pakcets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838632143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> of retransmission VS. Corruption</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$J$84:$O$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.82640856185733635</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8770898237877081</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3871308827539135</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.019671318627838</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>19.083597145192517</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>31.558096548711198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$J$84:$O$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.82640856185733635</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8770898237877081</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3871308827539135</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10.019671318627838</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>19.083597145192517</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>31.558096548711198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$J$78:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$J$82:$O$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1789-4790-AC34-0C016F6E81FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GBN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$J$93:$O$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>5.0098356593139188</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8627632338936682</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5304189238357786</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.120121051104814</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>30.843976685534205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.705473766789126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$J$93:$O$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>5.0098356593139188</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8627632338936682</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5304189238357786</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.120121051104814</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>30.843976685534205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.705473766789126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$J$91:$O$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>707.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1789-4790-AC34-0C016F6E81FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1544425823"/>
+        <c:axId val="1614159631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1544425823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Corruption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614159631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1614159631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Of Packets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544425823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Avg RTT as function of Corruption</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$K$53:$Q$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14422301070617011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12742732851504029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16147606282641375</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16366315005351686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17737114063073411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17373288400060619</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'655PA2_graph'!$K$53:$Q$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.14699092660296442</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14422301070617011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12742732851504029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16147606282641375</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16366315005351686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17737114063073411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17373288400060619</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$K$40:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'655PA2_graph'!$K$69:$Q$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.016126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.106960000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.04402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.123549999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.017339999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.111656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.143899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80D6-443C-9B97-E87DACC88FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="667566063"/>
+        <c:axId val="667573135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="667566063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -3891,7 +7271,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Loss Rate</a:t>
+                  <a:t>Corruption Rate</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -3963,7 +7343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1838620911"/>
+        <c:crossAx val="667573135"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3971,7 +7351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1838620911"/>
+        <c:axId val="667573135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,1024 +7458,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1838635887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t># of retransmit VS. Loss</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>2.5804599073291823</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.8272551829657964</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.995387735344936</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.8508813376446946</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.1864715360090505</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.01803098320223</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'655PA2_graph'!$B$84:$G$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>2.5804599073291823</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.8272551829657964</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.995387735344936</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.8508813376446946</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.1864715360090505</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.01803098320223</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>'655PA2_graph'!$B$78:$G$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'655PA2_graph'!$B$82:$G$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>339.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>481.33333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>632.66666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2804-4DC8-89F4-2299562A7F70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1838632143"/>
-        <c:axId val="1838620079"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1838632143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1838620079"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1838620079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> of pakcets</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1838632143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>#</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> of retransmission VS. Corruption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'655PA2_graph'!$J$84:$O$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>0.82640856185733635</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.8770898237877081</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.3871308827539135</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10.019671318627838</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.083597145192517</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>31.558096548711198</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'655PA2_graph'!$J$84:$O$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>0.82640856185733635</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.8770898237877081</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.3871308827539135</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10.019671318627838</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.083597145192517</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>31.558096548711198</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>'655PA2_graph'!$J$78:$O$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'655PA2_graph'!$J$82:$O$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>217.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>666.66666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CE2-4F9A-B086-587FA7EF3259}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1544425823"/>
-        <c:axId val="1614159631"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1544425823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Corruption</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1614159631"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1614159631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> Of Packets</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1544425823"/>
+        <c:crossAx val="667566063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5145,6 +7508,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5464,6 +7947,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5980,7 +8503,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6496,7 +9019,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7012,7 +9535,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7528,7 +10051,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8044,7 +10567,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8560,7 +11083,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9076,7 +11599,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9592,20 +12115,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>663575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9668,16 +14255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>681355</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>452755</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9704,16 +14291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>567055</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9740,23 +14327,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>543243</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B10D9C2-56E7-406E-AB87-E7F90A386D9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9776,23 +14363,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6834CB6D-5BE6-4A34-8A2C-0D0D6610E3BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9812,23 +14399,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D1526D-AC1C-4BA3-A5A8-9EB799CC599A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9848,23 +14435,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417793</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189193</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED7F3E3-F4AC-45A4-90B7-6E48435690DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9877,6 +14464,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>420221</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207309</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983517EC-F90A-4D7B-80C4-1DF404603930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A0274C-473A-4FE2-83A2-F9F95BA9F1C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5695EE5C-5018-45F8-893D-430FDA631B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391645</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>129429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>155762</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>67983</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B3DEE5-0222-4E1B-A000-81B87E1CC0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10143,10 +14874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82:O82"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13832,11 +18563,11 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <f>_xlfn.STDEV.P(B59,B61,B63,B65,B67)</f>
+        <f t="shared" ref="B70:Q70" si="34">_xlfn.STDEV.P(B59,B61,B63,B65,B67)</f>
         <v>0.16769474691832179</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:Q70" si="34">_xlfn.STDEV.P(C59,C61,C63,C65,C67)</f>
+        <f t="shared" si="34"/>
         <v>0.16819220671600696</v>
       </c>
       <c r="D70">
@@ -14173,7 +18904,10 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14401,11 +19135,11 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <f>_xlfn.STDEV.P(B79,B80,B81)</f>
+        <f t="shared" ref="B83:O83" si="40">_xlfn.STDEV.P(B79,B80,B81)</f>
         <v>2.9439202887759488</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:O83" si="40">_xlfn.STDEV.P(C79,C80,C81)</f>
+        <f t="shared" si="40"/>
         <v>7.7888809636986149</v>
       </c>
       <c r="D83">
@@ -14518,10 +19252,356 @@
         <v>31.558096548711198</v>
       </c>
     </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>0.02</v>
+      </c>
+      <c r="C87">
+        <v>0.05</v>
+      </c>
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+      <c r="E87">
+        <v>0.15</v>
+      </c>
+      <c r="F87">
+        <v>0.2</v>
+      </c>
+      <c r="G87">
+        <v>0.25</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87">
+        <v>0.02</v>
+      </c>
+      <c r="K87">
+        <v>0.05</v>
+      </c>
+      <c r="L87">
+        <v>0.1</v>
+      </c>
+      <c r="M87">
+        <v>0.15</v>
+      </c>
+      <c r="N87">
+        <v>0.2</v>
+      </c>
+      <c r="O87">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>103</v>
+      </c>
+      <c r="D88">
+        <v>245</v>
+      </c>
+      <c r="E88">
+        <v>372</v>
+      </c>
+      <c r="F88">
+        <v>537</v>
+      </c>
+      <c r="G88">
+        <v>597</v>
+      </c>
+      <c r="J88">
+        <v>44</v>
+      </c>
+      <c r="K88">
+        <v>122</v>
+      </c>
+      <c r="L88">
+        <v>243</v>
+      </c>
+      <c r="M88">
+        <v>354</v>
+      </c>
+      <c r="N88">
+        <v>517</v>
+      </c>
+      <c r="O88">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>41</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>197</v>
+      </c>
+      <c r="E89">
+        <v>318</v>
+      </c>
+      <c r="F89">
+        <v>449</v>
+      </c>
+      <c r="G89">
+        <v>595</v>
+      </c>
+      <c r="J89">
+        <v>51</v>
+      </c>
+      <c r="K89">
+        <v>114</v>
+      </c>
+      <c r="L89">
+        <v>234</v>
+      </c>
+      <c r="M89">
+        <v>400</v>
+      </c>
+      <c r="N89">
+        <v>479</v>
+      </c>
+      <c r="O89">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>105</v>
+      </c>
+      <c r="D90">
+        <v>236</v>
+      </c>
+      <c r="E90">
+        <v>394</v>
+      </c>
+      <c r="F90">
+        <v>415</v>
+      </c>
+      <c r="G90">
+        <v>610</v>
+      </c>
+      <c r="J90">
+        <v>37</v>
+      </c>
+      <c r="K90">
+        <v>118</v>
+      </c>
+      <c r="L90">
+        <v>235</v>
+      </c>
+      <c r="M90">
+        <v>349</v>
+      </c>
+      <c r="N90">
+        <v>565</v>
+      </c>
+      <c r="O90">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <f>AVERAGE(B88,B89,B90)</f>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:O91" si="42">AVERAGE(C88,C89,C90)</f>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="42"/>
+        <v>226</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="42"/>
+        <v>361.33333333333331</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="42"/>
+        <v>467</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="42"/>
+        <v>600.66666666666663</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I91" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="42"/>
+        <v>44</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="42"/>
+        <v>118</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="42"/>
+        <v>237.33333333333334</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="42"/>
+        <v>367.66666666666669</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="42"/>
+        <v>520.33333333333337</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="42"/>
+        <v>707.66666666666663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92:O92" si="43">_xlfn.STDEV.P(B88,B89,B90)</f>
+        <v>4.9888765156985881</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="43"/>
+        <v>8.0553639823963827</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="43"/>
+        <v>20.83266665599966</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="43"/>
+        <v>31.930480039541461</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="43"/>
+        <v>51.406873729752</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="43"/>
+        <v>6.6499791144200016</v>
+      </c>
+      <c r="H92" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I92" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="43"/>
+        <v>5.715476066494082</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="43"/>
+        <v>3.2659863237109041</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="43"/>
+        <v>4.0276819911981905</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="43"/>
+        <v>22.954060400915758</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="43"/>
+        <v>35.188381921057726</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="43"/>
+        <v>41.875476780038646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <f>1.96*B92/SQRT(5)</f>
+        <v>4.3729430720181011</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:O93" si="44">1.96*C92/SQRT(5)</f>
+        <v>7.0608378476715581</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="44"/>
+        <v>18.260637447800118</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="44"/>
+        <v>27.988299777665031</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="44"/>
+        <v>45.06011155482566</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="44"/>
+        <v>5.8289636967284135</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I93" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="44"/>
+        <v>5.0098356593139188</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="44"/>
+        <v>2.8627632338936682</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="44"/>
+        <v>3.5304189238357786</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="44"/>
+        <v>20.120121051104814</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="44"/>
+        <v>30.843976685534205</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="44"/>
+        <v>36.705473766789126</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>